--- a/Monthly_Report_Creator/sample.xlsx
+++ b/Monthly_Report_Creator/sample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject\Monthly Report Creator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\atakan yiğit\Projects\LESSONS\Python\Project\PythonProject_EmployeeWorkingHoursCalculation\Monthly_Report_Creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B490C-E8DE-4E73-A351-85FCBC231444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,13 +70,13 @@
     <t>Entry And Exit information</t>
   </si>
   <si>
-    <t>Mounth</t>
+    <t>Month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,28 +431,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -466,7 +465,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -479,7 +478,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -492,12 +491,12 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -521,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="2"/>
     </row>
   </sheetData>
